--- a/public/template_rekap.xlsx
+++ b/public/template_rekap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8430"/>
+    <workbookView windowWidth="19920" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No</t>
   </si>
@@ -33,16 +33,18 @@
   <si>
     <t>Keterangan</t>
   </si>
+  <si>
+    <t>Lokasi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -62,33 +64,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,6 +87,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -109,12 +103,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -122,31 +141,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,15 +171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -177,28 +187,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -215,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,21 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,39 +471,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -547,18 +501,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,134 +572,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,7 +712,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -719,7 +721,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1056,10 +1061,7 @@
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:10">
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,8 +1082,11 @@
         <v>5</v>
       </c>
       <c r="H2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1090,8 +1095,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
+      <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1100,8 +1106,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
+      <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1110,9 +1117,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="E5:F5"/>
@@ -1121,6 +1129,7 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="G2:H3"/>
   </mergeCells>
